--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730974027936" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731000460484" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731000470467" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731000930476" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731001550844" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912293889132" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912331872728" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912331892745" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912332362697" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912332972677" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730973627548.csv</t>
+          <t>go_stims-16502912293489127.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873097385791.csv</t>
+          <t>GNG_stims-16502912293719115.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730973887606.csv</t>
+          <t>go_stims-16502912293729305.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730974017603.csv</t>
+          <t>GNG_stims-16502912293869445.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730984280472.csv</t>
+          <t>OB-1650291231767992.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730979120488.csv</t>
+          <t>ZB-match_1-1650291229563951.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731000170457.csv</t>
+          <t>TB-16502912324832704.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-1649873098221056.csv</t>
+          <t>ZB-match_0-16502912303896868.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730993720822.csv</t>
+          <t>OB-16502912304099886.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730998660479.csv</t>
+          <t>TB-16502912319582744.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730988770463.csv</t>
+          <t>OB-16502912309570258.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873099798086.csv</t>
+          <t>TB-16502912331702704.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730979730825.csv</t>
+          <t>ZB-match_8-16502912302496889.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873100061085.csv</t>
+          <t>MM_stims-16502912332032778.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873100049047.csv</t>
+          <t>ZM_stims-165029123319127.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-164987310007708.csv</t>
+          <t>MM_stims-1650291233219307.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873100062051.csv</t>
+          <t>ZM_stims-16502912332042708.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731000920815.csv</t>
+          <t>MM_stims-16502912332362697.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731000780478.csv</t>
+          <t>ZM_stims-1650291233219307.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731001070838.csv</t>
+          <t>SAT_stims-16502912332402678.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731001230478.csv</t>
+          <t>vSAT_stims-165029123326727.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873100096047.csv</t>
+          <t>SAT_stims-16502912332522688.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731001390839.csv</t>
+          <t>vSAT_stims-16502912332823017.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912293889132" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912331872728" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912331892745" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912332362697" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912332972677" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778531284919" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778552344966" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477855235495" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778552974916" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778553614914" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912293489127.csv</t>
+          <t>go_stims-16504778530862436.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912293719115.csv</t>
+          <t>GNG_stims-16504778531116388.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912293729305.csv</t>
+          <t>go_stims-16504778531124935.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912293869445.csv</t>
+          <t>GNG_stims-1650477853127491.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291231767992.csv</t>
+          <t>OB-16504778541955273.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650291229563951.csv</t>
+          <t>ZB-match_0-16504778533244958.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912324832704.csv</t>
+          <t>TB-1650477855120529.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912303896868.csv</t>
+          <t>OB-16504778542295265.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912304099886.csv</t>
+          <t>TB-1650477855217526.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912319582744.csv</t>
+          <t>OB-16504778544365296.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912309570258.csv</t>
+          <t>TB-16504778549625127.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912331702704.csv</t>
+          <t>ZB-match_3-1650477853554501.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502912302496889.csv</t>
+          <t>ZB-match_5-16504778534564962.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912332032778.csv</t>
+          <t>MM_stims-16504778552654915.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-165029123319127.csv</t>
+          <t>ZM_stims-16504778552424932.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291233219307.csv</t>
+          <t>MM_stims-16504778552814913.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912332042708.csv</t>
+          <t>ZM_stims-16504778552664914.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912332362697.csv</t>
+          <t>MM_stims-16504778552974916.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291233219307.csv</t>
+          <t>ZM_stims-16504778552824926.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912332402678.csv</t>
+          <t>vSAT_stims-16504778553294911.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-165029123326727.csv</t>
+          <t>SAT_stims-16504778553134913.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912332522688.csv</t>
+          <t>SAT_stims-16504778553004928.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912332823017.csv</t>
+          <t>vSAT_stims-16504778553454921.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778531284919" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778552344966" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477855235495" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778552974916" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778553614914" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961433075938" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961467395601" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961467395601" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961467875931" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996146867602" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778530862436.csv</t>
+          <t>go_stims-16509961432755675.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778531116388.csv</t>
+          <t>GNG_stims-1650996143291593.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778531124935.csv</t>
+          <t>go_stims-1650996143291593.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477853127491.csv</t>
+          <t>GNG_stims-16509961433075938.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778541955273.csv</t>
+          <t>OB-16509961457715664.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778533244958.csv</t>
+          <t>OB-16509961445155635.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650477855120529.csv</t>
+          <t>ZB-match_4-16509961442835598.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778542295265.csv</t>
+          <t>ZB-match_6-16509961433875997.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650477855217526.csv</t>
+          <t>OB-1650996145619558.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778544365296.csv</t>
+          <t>TB-16509961465476.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778549625127.csv</t>
+          <t>ZB-match_5-16509961437875583.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650477853554501.csv</t>
+          <t>TB-16509961459715836.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778534564962.csv</t>
+          <t>TB-1650996146723594.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778552654915.csv</t>
+          <t>MM_stims-16509961467555654.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778552424932.csv</t>
+          <t>ZM_stims-16509961467395601.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778552814913.csv</t>
+          <t>MM_stims-16509961467715642.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778552664914.csv</t>
+          <t>ZM_stims-16509961467555654.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778552974916.csv</t>
+          <t>MM_stims-16509961467875931.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778552824926.csv</t>
+          <t>ZM_stims-16509961467715642.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778553294911.csv</t>
+          <t>SAT_stims-16509961468196251.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778553134913.csv</t>
+          <t>vSAT_stims-16509961468355966.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778553004928.csv</t>
+          <t>vSAT_stims-165099614685156.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778553454921.csv</t>
+          <t>SAT_stims-16509961467875931.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961433075938" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961467395601" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961467395601" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961467875931" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996146867602" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687425650241" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168745246005" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168745246434" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687453087118" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687453850935" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961432755675.csv</t>
+          <t>go_stims-1651168742528181.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996143291593.csv</t>
+          <t>GNG_stims-16511687425479298.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996143291593.csv</t>
+          <t>go_stims-1651168742548927.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961433075938.csv</t>
+          <t>GNG_stims-16511687425640194.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961457715664.csv</t>
+          <t>OB-16511687429267974.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509961445155635.csv</t>
+          <t>TB-16511687447908103.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961442835598.csv</t>
+          <t>ZB-match_4-16511687426641192.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961433875997.csv</t>
+          <t>TB-16511687452312796.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650996145619558.csv</t>
+          <t>ZB-match_4-16511687428160548.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961465476.csv</t>
+          <t>OB-1651168743677806.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961437875583.csv</t>
+          <t>ZB-match_3-16511687425818298.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509961459715836.csv</t>
+          <t>OB-16511687431895618.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650996146723594.csv</t>
+          <t>TB-1651168744494411.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961467555654.csv</t>
+          <t>MM_stims-16511687452612565.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961467395601.csv</t>
+          <t>ZM_stims-16511687452494254.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961467715642.csv</t>
+          <t>MM_stims-16511687452926598.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961467555654.csv</t>
+          <t>ZM_stims-16511687452612565.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961467875931.csv</t>
+          <t>MM_stims-16511687453087118.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961467715642.csv</t>
+          <t>ZM_stims-1651168745293659.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961468196251.csv</t>
+          <t>vSAT_stims-16511687453695931.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961468355966.csv</t>
+          <t>SAT_stims-16511687453145788.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-165099614685156.csv</t>
+          <t>SAT_stims-16511687453401122.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961467875931.csv</t>
+          <t>vSAT_stims-1651168745354115.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687425650241" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168745246005" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168745246434" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687453087118" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687453850935" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555704071147" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555734150155" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555734170165" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555734640176" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555735407321" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168742528181.csv</t>
+          <t>go_stims-16512555703713923.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687425479298.csv</t>
+          <t>GNG_stims-16512555703910575.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168742548927.csv</t>
+          <t>go_stims-16512555703930588.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687425640194.csv</t>
+          <t>GNG_stims-16512555704061122.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687429267974.csv</t>
+          <t>ZB-match_8-1651255571103362.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687447908103.csv</t>
+          <t>ZB-match_7-16512555708811545.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511687426641192.csv</t>
+          <t>TB-1651255572169777.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687452312796.csv</t>
+          <t>TB-16512555720162358.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511687428160548.csv</t>
+          <t>OB-16512555716165235.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1651168743677806.csv</t>
+          <t>OB-16512555716600084.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511687425818298.csv</t>
+          <t>ZB-match_5-1651255570813676.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687431895618.csv</t>
+          <t>OB-16512555717837315.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1651168744494411.csv</t>
+          <t>TB-1651255573394015.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687452612565.csv</t>
+          <t>MM_stims-16512555734310172.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687452494254.csv</t>
+          <t>ZM_stims-1651255573419018.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687452926598.csv</t>
+          <t>MM_stims-16512555734470181.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687452612565.csv</t>
+          <t>ZM_stims-16512555734320226.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687453087118.csv</t>
+          <t>MM_stims-16512555734620202.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168745293659.csv</t>
+          <t>ZM_stims-16512555734480178.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687453695931.csv</t>
+          <t>SAT_stims-16512555734680192.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687453145788.csv</t>
+          <t>vSAT_stims-1651255573510026.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687453401122.csv</t>
+          <t>SAT_stims-16512555734950252.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168745354115.csv</t>
+          <t>vSAT_stims-1651255573525705.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_31/participant_31_task_orders.xlsx
+++ b/participants/participant_31/participant_31_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555704071147" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555734150155" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555734170165" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555734640176" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555735407321" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-16515890029033554" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515890029345722" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-16515890029814513" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-1651589007353281" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-165158900741578" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +429,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -450,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555703713923.csv</t>
+          <t>go_stims-16515890029033554.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555703910575.csv</t>
+          <t>GNG_stims-165158900291895.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555703930588.csv</t>
+          <t>go_stims-165158900291895.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555704061122.csv</t>
+          <t>GNG_stims-16515890029345722.csv</t>
         </is>
       </c>
     </row>
@@ -489,7 +535,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890029502313.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890029345722.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890029658597.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890029502313.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890029814513.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890029658597.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +648,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-1651255571103362.csv</t>
+          <t>ZB-match_3-16515890038238697.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +658,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512555708811545.csv</t>
+          <t>TB-16515890073064399.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +668,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255572169777.csv</t>
+          <t>OB-16515890044374049.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +678,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555720162358.csv</t>
+          <t>TB-16515890073220308.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555716165235.csv</t>
+          <t>TB-1651589006803315.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +698,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16512555716600084.csv</t>
+          <t>OB-1651589005347983.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-1651255570813676.csv</t>
+          <t>OB-1651589004993494.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512555717837315.csv</t>
+          <t>ZB-match_8-16515890032560065.csv</t>
         </is>
       </c>
     </row>
@@ -596,139 +728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1651255573394015.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555734310172.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255573419018.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555734470181.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555734320226.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555734620202.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555734480178.csv</t>
+          <t>ZB-match_7-16515890037113018.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555734680192.csv</t>
+          <t>SAT_stims-1651589007353281.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255573510026.csv</t>
+          <t>SAT_stims-16515890073689065.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555734950252.csv</t>
+          <t>vSAT_stims-16515890074001553.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255573525705.csv</t>
+          <t>vSAT_stims-1651589007384531.csv</t>
         </is>
       </c>
     </row>
